--- a/Data/Processing/2024-02-02/INFY.xlsx
+++ b/Data/Processing/2024-02-02/INFY.xlsx
@@ -1569,7 +1569,7 @@
         <v>1430.84</v>
       </c>
       <c r="D21">
-        <v>1410.37</v>
+        <v>1410.36</v>
       </c>
       <c r="E21">
         <v>1415.03</v>
@@ -3619,7 +3619,7 @@
         <v>1221.01</v>
       </c>
       <c r="D62">
-        <v>1206.49</v>
+        <v>1206.5</v>
       </c>
       <c r="E62">
         <v>1216.49</v>
